--- a/biology/Médecine/Fauchage_(médecine)/Fauchage_(médecine).xlsx
+++ b/biology/Médecine/Fauchage_(médecine)/Fauchage_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fauchage_(m%C3%A9decine)</t>
+          <t>Fauchage_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fauchage en médecine est un trouble de la marche d'origine neurologique, rencontré lors des atteintes pyramidales avec hypertonie et marche spastique.
 Il est caractérisé par un membre inférieur restant raide lors de la marche, décrivant un demi-cercle au sol avec le pied raclant le sol, imitant le mouvement circulaire d'une faux.
